--- a/FinalResults/BinarySearch.xlsx
+++ b/FinalResults/BinarySearch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\Results\BinarySearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76554EC9-8BAD-422F-A715-900608C2E5A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F566F09-E9A9-4862-B384-2471831FA073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82DB5590-69E8-4288-A4A6-F6F33D9B336B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>AssemblyScript</t>
   </si>
@@ -46,11 +46,17 @@
   <si>
     <t>Rust</t>
   </si>
+  <si>
+    <t>Iteration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,7 +88,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,452 +403,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBD8937-EDE3-4887-A139-EC9FF044BE19}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.5703125" customWidth="1"/>
+    <col min="2" max="5" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>3.2603213999999998E-2</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>1.8295E-5</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>2.2364000000000001E-5</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>5.7150780000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>3.3320117000000003E-2</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="1">
         <v>2.2670000000000001E-6</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="1">
         <v>2.8650000000000001E-6</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
         <v>2.9861441999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>3.3435931000000002E-2</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>1.33E-6</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>1.3939999999999999E-6</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>2.5770676999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>4.6379318000000003E-2</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>1.1650000000000001E-6</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="1">
         <v>1.207E-6</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="1">
         <v>9.2023390000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>3.7619181000000002E-2</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>5.2989999999999996E-6</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>6.3679999999999998E-6</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>2.5211595E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>4.0024665000000001E-2</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="1">
         <v>4.3889999999999998E-6</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="1">
         <v>4.279E-6</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="1">
         <v>1.7395501000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>4.6694133999999998E-2</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>1.0249999999999999E-6</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>1.0359999999999999E-6</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>3.6000236999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>4.1636172999999999E-2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>9.09E-7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>9.6899999999999996E-7</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="1">
         <v>2.1852681999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>4.0627954000000001E-2</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>1.5820000000000001E-6</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="1">
         <v>1.8050000000000001E-6</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>2.7284328E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>4.3137699000000002E-2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>7.7700000000000004E-7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>8.7499999999999999E-7</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="1">
         <v>1.7130240000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>4.2854879999999998E-2</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>6.6499999999999999E-7</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="1">
         <v>1.0699999999999999E-6</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="1">
         <v>2.6489255E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>3.5015050999999998E-2</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>6.5499999999999998E-7</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>6.5600000000000005E-7</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="1">
         <v>1.6593657000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>3.9990388000000002E-2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>5.9400000000000005E-7</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>6.2099999999999996E-7</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="1">
         <v>2.1323799000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>4.2673020999999998E-2</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>5.9699999999999996E-7</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>9.1399999999999995E-7</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="1">
         <v>4.0110592E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>3.7327108999999997E-2</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>5.4099999999999999E-7</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>5.5199999999999997E-7</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="1">
         <v>2.1830664E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>4.4972976999999997E-2</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="1">
         <v>1.2559999999999999E-6</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="1">
         <v>2.0999999999999998E-6</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="1">
         <v>1.7698157999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>4.3974609999999997E-2</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>6.9100000000000003E-7</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>7.4799999999999997E-7</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="1">
         <v>2.0609514999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>3.6427394000000002E-2</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>6.75E-7</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>7.0200000000000001E-7</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="1">
         <v>2.2235745000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>4.4827737999999999E-2</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>5.9400000000000005E-7</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>5.6300000000000005E-7</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="1">
         <v>2.4523149000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <v>4.4181231000000001E-2</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>4.9100000000000004E-7</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="1">
         <v>1.826E-6</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="1">
         <v>2.6426662E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>3.7855314000000001E-2</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>5.0699999999999997E-7</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>5.5400000000000001E-7</v>
       </c>
-      <c r="D22">
+      <c r="E22" s="1">
         <v>1.9182383000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <v>4.2535868999999997E-2</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>4.9699999999999996E-7</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>5.37E-7</v>
       </c>
-      <c r="D23">
+      <c r="E23" s="1">
         <v>1.8199913000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <v>4.1706855000000001E-2</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="1">
         <v>5.2699999999999999E-7</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>5.9500000000000002E-7</v>
       </c>
-      <c r="D24">
+      <c r="E24" s="1">
         <v>2.5168737E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>3.751641E-2</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="1">
         <v>4.7599999999999997E-7</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>5.51E-7</v>
       </c>
-      <c r="D25">
+      <c r="E25" s="1">
         <v>2.4449716E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
         <v>4.4815046999999997E-2</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C26" s="1">
         <v>4.82E-7</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>5.7800000000000001E-7</v>
       </c>
-      <c r="D26">
+      <c r="E26" s="1">
         <v>1.9512325000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <v>4.0918700000000002E-2</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="1">
         <v>4.7999999999999996E-7</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>6.0699999999999997E-7</v>
       </c>
-      <c r="D27">
+      <c r="E27" s="1">
         <v>2.4194272999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
         <v>3.6658665E-2</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="1">
         <v>5.1200000000000003E-7</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>5.4799999999999998E-7</v>
       </c>
-      <c r="D28">
+      <c r="E28" s="1">
         <v>3.0658851000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
         <v>4.5558356000000001E-2</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="1">
         <v>5.2600000000000002E-7</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>5.4199999999999996E-7</v>
       </c>
-      <c r="D29">
+      <c r="E29" s="1">
         <v>2.7873057999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <v>4.3208494E-2</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="1">
         <v>7.92E-7</v>
       </c>
-      <c r="C30">
+      <c r="D30" s="1">
         <v>1.133E-6</v>
       </c>
-      <c r="D30">
+      <c r="E30" s="1">
         <v>3.0146030000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>4.7966566000000002E-2</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="1">
         <v>8.9899999999999999E-7</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>5.6700000000000003E-7</v>
       </c>
-      <c r="D31">
+      <c r="E31" s="1">
         <v>1.8457299999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FinalResults/BinarySearch.xlsx
+++ b/FinalResults/BinarySearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F566F09-E9A9-4862-B384-2471831FA073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D93B18A-73F6-4B5D-86F6-B738A91DB883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82DB5590-69E8-4288-A4A6-F6F33D9B336B}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82DB5590-69E8-4288-A4A6-F6F33D9B336B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,9 +83,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBD8937-EDE3-4887-A139-EC9FF044BE19}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,510 +431,2040 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>3.2603213999999998E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.8295E-5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.2364000000000001E-5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.7150780000000002E-3</v>
+      <c r="B2">
+        <v>4.3391816999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>3.3391338999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>4.2808693000000002E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.1623949999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>3.3320117000000003E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.2670000000000001E-6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.8650000000000001E-6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.9861441999999998E-2</v>
+      <c r="B3">
+        <v>5.7768218000000003E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.1964801000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.8653389000000003E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.8004520999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.3435931000000002E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.33E-6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.3939999999999999E-6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.5770676999999999E-2</v>
+      <c r="B4">
+        <v>7.3071592000000005E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.6526817000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.4465947999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.9000937000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>4.6379318000000003E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.1650000000000001E-6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.207E-6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>9.2023390000000004E-3</v>
+      <c r="B5">
+        <v>6.7796703999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.2538998E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.4671849999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.8806532000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>3.7619181000000002E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5.2989999999999996E-6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6.3679999999999998E-6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.5211595E-2</v>
+      <c r="B6">
+        <v>5.8516090999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.3376600999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.0411376999999998E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.7981732E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>4.0024665000000001E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.3889999999999998E-6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4.279E-6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.7395501000000001E-2</v>
+      <c r="B7">
+        <v>7.6066835999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.7576287E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.9150211999999997E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.3933487E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>4.6694133999999998E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.0249999999999999E-6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.0359999999999999E-6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.6000236999999997E-2</v>
+      <c r="B8">
+        <v>7.1715503E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.6991363999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.7973031999999997E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.3566924E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>4.1636172999999999E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9.09E-7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9.6899999999999996E-7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.1852681999999998E-2</v>
+      <c r="B9">
+        <v>6.2053636000000002E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.6979277E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.7004136E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.8839611999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>4.0627954000000001E-2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.5820000000000001E-6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.8050000000000001E-6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.7284328E-2</v>
+      <c r="B10">
+        <v>7.1241129E-2</v>
+      </c>
+      <c r="C10">
+        <v>3.5432361000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.7923433999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.9196935E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>4.3137699000000002E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7.7700000000000004E-7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8.7499999999999999E-7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.7130240000000001E-2</v>
+      <c r="B11">
+        <v>7.0438453999999998E-2</v>
+      </c>
+      <c r="C11">
+        <v>3.5532270999999997E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.8323839999999998E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.3950952000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>4.2854879999999998E-2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6.6499999999999999E-7</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.0699999999999999E-6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.6489255E-2</v>
+      <c r="B12">
+        <v>6.2306841000000002E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.5699093000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.5334378E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.7585688000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>3.5015050999999998E-2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6.5499999999999998E-7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6.5600000000000005E-7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.6593657000000001E-2</v>
+      <c r="B13">
+        <v>7.4460570000000004E-2</v>
+      </c>
+      <c r="C13">
+        <v>4.0821660000000003E-2</v>
+      </c>
+      <c r="D13">
+        <v>3.9370612999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.2619785E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>3.9990388000000002E-2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5.9400000000000005E-7</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6.2099999999999996E-7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2.1323799000000001E-2</v>
+      <c r="B14">
+        <v>6.1345106000000003E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.6201544000000002E-2</v>
+      </c>
+      <c r="D14">
+        <v>4.1234536000000002E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.6547500000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>4.2673020999999998E-2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5.9699999999999996E-7</v>
-      </c>
-      <c r="D15" s="1">
-        <v>9.1399999999999995E-7</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4.0110592E-2</v>
+      <c r="B15">
+        <v>7.4445908000000005E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.9029897000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>4.3620702999999997E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.8911501000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>3.7327108999999997E-2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5.4099999999999999E-7</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5.5199999999999997E-7</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2.1830664E-2</v>
+      <c r="B16">
+        <v>7.3801476000000005E-2</v>
+      </c>
+      <c r="C16">
+        <v>3.4402530000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.8340262999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.4921962999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>4.4972976999999997E-2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.2559999999999999E-6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.7698157999999999E-2</v>
+      <c r="B17">
+        <v>6.5796309999999997E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.5773553999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>4.1614854999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.9946309999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>4.3974609999999997E-2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6.9100000000000003E-7</v>
-      </c>
-      <c r="D18" s="1">
-        <v>7.4799999999999997E-7</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2.0609514999999998E-2</v>
+      <c r="B18">
+        <v>6.6420226999999998E-2</v>
+      </c>
+      <c r="C18">
+        <v>3.0259111000000002E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.0840096999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.1449922999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>3.6427394000000002E-2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6.75E-7</v>
-      </c>
-      <c r="D19" s="1">
-        <v>7.0200000000000001E-7</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2.2235745000000001E-2</v>
+      <c r="B19">
+        <v>8.1447817000000006E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.5475040999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>3.8663830000000003E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.5875209000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>4.4827737999999999E-2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5.9400000000000005E-7</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5.6300000000000005E-7</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2.4523149000000001E-2</v>
+      <c r="B20">
+        <v>7.4834277000000005E-2</v>
+      </c>
+      <c r="C20">
+        <v>4.2560292E-2</v>
+      </c>
+      <c r="D20">
+        <v>3.8680921E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.8964527E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>4.4181231000000001E-2</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4.9100000000000004E-7</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.826E-6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2.6426662E-2</v>
+      <c r="B21">
+        <v>7.4925791000000005E-2</v>
+      </c>
+      <c r="C21">
+        <v>3.8798924999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>4.3322503999999998E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.9075773000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>3.7855314000000001E-2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5.0699999999999997E-7</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5.5400000000000001E-7</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.9182383000000001E-2</v>
+      <c r="B22">
+        <v>6.8923324999999994E-2</v>
+      </c>
+      <c r="C22">
+        <v>3.9482438000000002E-2</v>
+      </c>
+      <c r="D22">
+        <v>4.1987702000000002E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.9633923000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>4.2535868999999997E-2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4.9699999999999996E-7</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5.37E-7</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.8199913000000002E-2</v>
+      <c r="B23">
+        <v>6.5771153999999998E-2</v>
+      </c>
+      <c r="C23">
+        <v>4.2581415999999997E-2</v>
+      </c>
+      <c r="D23">
+        <v>4.4360516000000003E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.0072493E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>4.1706855000000001E-2</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5.2699999999999999E-7</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5.9500000000000002E-7</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2.5168737E-2</v>
+      <c r="B24">
+        <v>6.6415135E-2</v>
+      </c>
+      <c r="C24">
+        <v>4.1296245000000002E-2</v>
+      </c>
+      <c r="D24">
+        <v>4.6750950999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.4700439E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>3.751641E-2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4.7599999999999997E-7</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5.51E-7</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.4449716E-2</v>
+      <c r="B25">
+        <v>6.8988264999999993E-2</v>
+      </c>
+      <c r="C25">
+        <v>4.5229337000000001E-2</v>
+      </c>
+      <c r="D25">
+        <v>4.7984084000000003E-2</v>
+      </c>
+      <c r="E25">
+        <v>2.1059772000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>4.4815046999999997E-2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4.82E-7</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5.7800000000000001E-7</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1.9512325000000001E-2</v>
+      <c r="B26">
+        <v>6.7536315E-2</v>
+      </c>
+      <c r="C26">
+        <v>4.6952491999999998E-2</v>
+      </c>
+      <c r="D26">
+        <v>4.6392348E-2</v>
+      </c>
+      <c r="E26">
+        <v>2.4129259E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>4.0918700000000002E-2</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4.7999999999999996E-7</v>
-      </c>
-      <c r="D27" s="1">
-        <v>6.0699999999999997E-7</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2.4194272999999999E-2</v>
+      <c r="B27">
+        <v>6.6924601E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.6597646999999999E-2</v>
+      </c>
+      <c r="D27">
+        <v>4.6869968999999997E-2</v>
+      </c>
+      <c r="E27">
+        <v>2.6299402E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>3.6658665E-2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5.1200000000000003E-7</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5.4799999999999998E-7</v>
-      </c>
-      <c r="E28" s="1">
-        <v>3.0658851000000001E-2</v>
+      <c r="B28">
+        <v>6.8493316999999998E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.1841123000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>4.6961523999999998E-2</v>
+      </c>
+      <c r="E28">
+        <v>3.4109611999999997E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>4.5558356000000001E-2</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5.2600000000000002E-7</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5.4199999999999996E-7</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2.7873057999999999E-2</v>
+      <c r="B29">
+        <v>6.9639397000000006E-2</v>
+      </c>
+      <c r="C29">
+        <v>4.4518422000000002E-2</v>
+      </c>
+      <c r="D29">
+        <v>5.1715194999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.0469920999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>4.3208494E-2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>7.92E-7</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1.133E-6</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3.0146030000000001E-2</v>
+      <c r="B30">
+        <v>6.2972177000000004E-2</v>
+      </c>
+      <c r="C30">
+        <v>4.5208480000000002E-2</v>
+      </c>
+      <c r="D30">
+        <v>4.8149233E-2</v>
+      </c>
+      <c r="E30">
+        <v>2.3139328000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>4.7966566000000002E-2</v>
-      </c>
-      <c r="C31" s="1">
-        <v>8.9899999999999999E-7</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5.6700000000000003E-7</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1.8457299999999999E-2</v>
+      <c r="B31">
+        <v>6.5839498999999996E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.5079936000000001E-2</v>
+      </c>
+      <c r="D31">
+        <v>4.8398231E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.6680834E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6.866208E-2</v>
+      </c>
+      <c r="C32">
+        <v>4.6380734E-2</v>
+      </c>
+      <c r="D32">
+        <v>4.8411506999999999E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.3939406999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7.2241932999999994E-2</v>
+      </c>
+      <c r="C33">
+        <v>4.5105019000000003E-2</v>
+      </c>
+      <c r="D33">
+        <v>5.1855011999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>3.0277818000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6.6526465000000007E-2</v>
+      </c>
+      <c r="C34">
+        <v>4.4193107000000002E-2</v>
+      </c>
+      <c r="D34">
+        <v>5.0493997999999998E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.3971330999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7.4809983999999996E-2</v>
+      </c>
+      <c r="C35">
+        <v>4.2414774000000002E-2</v>
+      </c>
+      <c r="D35">
+        <v>4.6162175E-2</v>
+      </c>
+      <c r="E35">
+        <v>2.7032257000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7.0606991999999993E-2</v>
+      </c>
+      <c r="C36">
+        <v>4.4429073999999999E-2</v>
+      </c>
+      <c r="D36">
+        <v>5.5284354000000001E-2</v>
+      </c>
+      <c r="E36">
+        <v>3.0383783000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7.3024436999999998E-2</v>
+      </c>
+      <c r="C37">
+        <v>4.7947347000000001E-2</v>
+      </c>
+      <c r="D37">
+        <v>5.1860219999999999E-2</v>
+      </c>
+      <c r="E37">
+        <v>1.9771081999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7.3460617000000006E-2</v>
+      </c>
+      <c r="C38">
+        <v>4.4970244999999999E-2</v>
+      </c>
+      <c r="D38">
+        <v>4.9252184999999997E-2</v>
+      </c>
+      <c r="E38">
+        <v>1.9068367999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7.3715887999999993E-2</v>
+      </c>
+      <c r="C39">
+        <v>5.1204454000000003E-2</v>
+      </c>
+      <c r="D39">
+        <v>4.7134860000000001E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.9544992999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7.9732534999999993E-2</v>
+      </c>
+      <c r="C40">
+        <v>4.3226032999999997E-2</v>
+      </c>
+      <c r="D40">
+        <v>4.5197409000000001E-2</v>
+      </c>
+      <c r="E40">
+        <v>2.3041426E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>6.8239169000000002E-2</v>
+      </c>
+      <c r="C41">
+        <v>4.9929847999999999E-2</v>
+      </c>
+      <c r="D41">
+        <v>5.1599301E-2</v>
+      </c>
+      <c r="E41">
+        <v>2.4184363E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7.8163393999999997E-2</v>
+      </c>
+      <c r="C42">
+        <v>5.1445138000000001E-2</v>
+      </c>
+      <c r="D42">
+        <v>4.2781246000000002E-2</v>
+      </c>
+      <c r="E42">
+        <v>2.6511308000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7.6397397000000006E-2</v>
+      </c>
+      <c r="C43">
+        <v>3.8011893999999997E-2</v>
+      </c>
+      <c r="D43">
+        <v>4.7686595999999998E-2</v>
+      </c>
+      <c r="E43">
+        <v>2.5875533999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7.9388720999999995E-2</v>
+      </c>
+      <c r="C44">
+        <v>5.0724910999999998E-2</v>
+      </c>
+      <c r="D44">
+        <v>4.5576490999999997E-2</v>
+      </c>
+      <c r="E44">
+        <v>2.7125631000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7.7097275000000007E-2</v>
+      </c>
+      <c r="C45">
+        <v>4.7247638000000002E-2</v>
+      </c>
+      <c r="D45">
+        <v>4.5200148000000002E-2</v>
+      </c>
+      <c r="E45">
+        <v>2.2128043E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>6.6771385000000003E-2</v>
+      </c>
+      <c r="C46">
+        <v>4.5657066000000003E-2</v>
+      </c>
+      <c r="D46">
+        <v>4.2467980000000002E-2</v>
+      </c>
+      <c r="E46">
+        <v>3.7972025E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>8.9917011000000005E-2</v>
+      </c>
+      <c r="C47">
+        <v>5.0341714000000003E-2</v>
+      </c>
+      <c r="D47">
+        <v>4.2176032000000002E-2</v>
+      </c>
+      <c r="E47">
+        <v>2.4400726000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7.6029198000000006E-2</v>
+      </c>
+      <c r="C48">
+        <v>4.8281361000000002E-2</v>
+      </c>
+      <c r="D48">
+        <v>4.6749389000000002E-2</v>
+      </c>
+      <c r="E48">
+        <v>3.5612520000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>8.5310222000000005E-2</v>
+      </c>
+      <c r="C49">
+        <v>4.6227815999999998E-2</v>
+      </c>
+      <c r="D49">
+        <v>4.0038125000000001E-2</v>
+      </c>
+      <c r="E49">
+        <v>1.577603E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7.4056301000000005E-2</v>
+      </c>
+      <c r="C50">
+        <v>4.8005606999999999E-2</v>
+      </c>
+      <c r="D50">
+        <v>4.7002407000000003E-2</v>
+      </c>
+      <c r="E50">
+        <v>2.6183868999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>8.1522397999999996E-2</v>
+      </c>
+      <c r="C51">
+        <v>4.5714421999999998E-2</v>
+      </c>
+      <c r="D51">
+        <v>4.9986950000000002E-2</v>
+      </c>
+      <c r="E51">
+        <v>1.6272802999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7.6128174000000007E-2</v>
+      </c>
+      <c r="C52">
+        <v>5.0291535999999998E-2</v>
+      </c>
+      <c r="D52">
+        <v>4.8268887000000003E-2</v>
+      </c>
+      <c r="E52">
+        <v>3.2119121E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7.5261448999999994E-2</v>
+      </c>
+      <c r="C53">
+        <v>4.1711985E-2</v>
+      </c>
+      <c r="D53">
+        <v>4.5934478000000001E-2</v>
+      </c>
+      <c r="E53">
+        <v>2.1664867000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>6.6368500999999996E-2</v>
+      </c>
+      <c r="C54">
+        <v>4.7425175999999999E-2</v>
+      </c>
+      <c r="D54">
+        <v>4.8098416999999997E-2</v>
+      </c>
+      <c r="E54">
+        <v>2.6868220000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>8.3593503E-2</v>
+      </c>
+      <c r="C55">
+        <v>4.7490777999999997E-2</v>
+      </c>
+      <c r="D55">
+        <v>4.5071339000000002E-2</v>
+      </c>
+      <c r="E55">
+        <v>1.7034752E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7.4638616000000005E-2</v>
+      </c>
+      <c r="C56">
+        <v>5.0102720000000003E-2</v>
+      </c>
+      <c r="D56">
+        <v>4.6294931999999997E-2</v>
+      </c>
+      <c r="E56">
+        <v>3.0233593999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7.8508095999999999E-2</v>
+      </c>
+      <c r="C57">
+        <v>5.0306866999999998E-2</v>
+      </c>
+      <c r="D57">
+        <v>4.6820386999999998E-2</v>
+      </c>
+      <c r="E57">
+        <v>2.6415391999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7.9604944999999996E-2</v>
+      </c>
+      <c r="C58">
+        <v>4.9858658E-2</v>
+      </c>
+      <c r="D58">
+        <v>4.6549276000000001E-2</v>
+      </c>
+      <c r="E58">
+        <v>1.80372E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7.4389532999999994E-2</v>
+      </c>
+      <c r="C59">
+        <v>4.4542957000000001E-2</v>
+      </c>
+      <c r="D59">
+        <v>4.6483806000000003E-2</v>
+      </c>
+      <c r="E59">
+        <v>1.9851199E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7.9597762000000002E-2</v>
+      </c>
+      <c r="C60">
+        <v>5.1108841000000002E-2</v>
+      </c>
+      <c r="D60">
+        <v>4.7294676000000001E-2</v>
+      </c>
+      <c r="E60">
+        <v>3.3910555000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7.3819158999999995E-2</v>
+      </c>
+      <c r="C61">
+        <v>4.3817222000000003E-2</v>
+      </c>
+      <c r="D61">
+        <v>4.7496735999999998E-2</v>
+      </c>
+      <c r="E61">
+        <v>3.0029872999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7.0876791999999994E-2</v>
+      </c>
+      <c r="C62">
+        <v>4.5235790999999997E-2</v>
+      </c>
+      <c r="D62">
+        <v>4.3371340000000001E-2</v>
+      </c>
+      <c r="E62">
+        <v>1.8934487999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>8.1398216999999995E-2</v>
+      </c>
+      <c r="C63">
+        <v>4.3285639000000001E-2</v>
+      </c>
+      <c r="D63">
+        <v>5.4348794999999998E-2</v>
+      </c>
+      <c r="E63">
+        <v>3.3733353000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7.8197600000000006E-2</v>
+      </c>
+      <c r="C64">
+        <v>4.8545838000000001E-2</v>
+      </c>
+      <c r="D64">
+        <v>4.6701660999999998E-2</v>
+      </c>
+      <c r="E64">
+        <v>2.3756528999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7.5257451000000003E-2</v>
+      </c>
+      <c r="C65">
+        <v>4.8853422000000001E-2</v>
+      </c>
+      <c r="D65">
+        <v>4.5408388000000001E-2</v>
+      </c>
+      <c r="E65">
+        <v>2.3528268000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7.6775837E-2</v>
+      </c>
+      <c r="C66">
+        <v>5.0595237000000001E-2</v>
+      </c>
+      <c r="D66">
+        <v>4.4792757000000002E-2</v>
+      </c>
+      <c r="E66">
+        <v>2.8387176E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7.4866713000000001E-2</v>
+      </c>
+      <c r="C67">
+        <v>4.6807686000000001E-2</v>
+      </c>
+      <c r="D67">
+        <v>4.4483538000000003E-2</v>
+      </c>
+      <c r="E67">
+        <v>1.9626384E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7.4608854000000002E-2</v>
+      </c>
+      <c r="C68">
+        <v>4.5824300999999998E-2</v>
+      </c>
+      <c r="D68">
+        <v>4.3982081999999999E-2</v>
+      </c>
+      <c r="E68">
+        <v>2.7501991999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>8.1665735000000003E-2</v>
+      </c>
+      <c r="C69">
+        <v>4.5360905999999999E-2</v>
+      </c>
+      <c r="D69">
+        <v>4.7865475999999997E-2</v>
+      </c>
+      <c r="E69">
+        <v>1.7348544E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7.6398623999999998E-2</v>
+      </c>
+      <c r="C70">
+        <v>4.7065813999999997E-2</v>
+      </c>
+      <c r="D70">
+        <v>4.7142326999999998E-2</v>
+      </c>
+      <c r="E70">
+        <v>2.8444783000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>8.2130734999999996E-2</v>
+      </c>
+      <c r="C71">
+        <v>4.4301404000000003E-2</v>
+      </c>
+      <c r="D71">
+        <v>4.6243782999999997E-2</v>
+      </c>
+      <c r="E71">
+        <v>3.0614725999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7.8484161999999996E-2</v>
+      </c>
+      <c r="C72">
+        <v>4.4931790999999999E-2</v>
+      </c>
+      <c r="D72">
+        <v>4.2236181999999997E-2</v>
+      </c>
+      <c r="E72">
+        <v>1.4398714E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7.9019537000000001E-2</v>
+      </c>
+      <c r="C73">
+        <v>4.8240988999999998E-2</v>
+      </c>
+      <c r="D73">
+        <v>4.8390076999999997E-2</v>
+      </c>
+      <c r="E73">
+        <v>3.1403246000000003E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7.0519858000000005E-2</v>
+      </c>
+      <c r="C74">
+        <v>4.2470115000000003E-2</v>
+      </c>
+      <c r="D74">
+        <v>4.5122667999999998E-2</v>
+      </c>
+      <c r="E74">
+        <v>2.1816014000000002E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>8.0084763000000003E-2</v>
+      </c>
+      <c r="C75">
+        <v>4.4580810999999998E-2</v>
+      </c>
+      <c r="D75">
+        <v>4.4936472999999998E-2</v>
+      </c>
+      <c r="E75">
+        <v>2.3468741000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7.1704796000000001E-2</v>
+      </c>
+      <c r="C76">
+        <v>4.9193058999999997E-2</v>
+      </c>
+      <c r="D76">
+        <v>4.5768638E-2</v>
+      </c>
+      <c r="E76">
+        <v>3.1450422999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>8.6623980000000003E-2</v>
+      </c>
+      <c r="C77">
+        <v>5.1129118000000001E-2</v>
+      </c>
+      <c r="D77">
+        <v>4.4252940999999997E-2</v>
+      </c>
+      <c r="E77">
+        <v>2.6404251E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7.9557674999999994E-2</v>
+      </c>
+      <c r="C78">
+        <v>5.7334481999999999E-2</v>
+      </c>
+      <c r="D78">
+        <v>4.2964428999999998E-2</v>
+      </c>
+      <c r="E78">
+        <v>1.9772883000000002E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>6.7875432999999999E-2</v>
+      </c>
+      <c r="C79">
+        <v>6.8021872999999997E-2</v>
+      </c>
+      <c r="D79">
+        <v>4.8332512000000001E-2</v>
+      </c>
+      <c r="E79">
+        <v>2.2684717E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7.0906326000000006E-2</v>
+      </c>
+      <c r="C80">
+        <v>5.4783207E-2</v>
+      </c>
+      <c r="D80">
+        <v>4.5084025E-2</v>
+      </c>
+      <c r="E80">
+        <v>2.8799332E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7.3167691000000007E-2</v>
+      </c>
+      <c r="C81">
+        <v>6.5032486E-2</v>
+      </c>
+      <c r="D81">
+        <v>4.5030094E-2</v>
+      </c>
+      <c r="E81">
+        <v>2.3437634999999998E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>8.5356593999999994E-2</v>
+      </c>
+      <c r="C82">
+        <v>5.2057863000000003E-2</v>
+      </c>
+      <c r="D82">
+        <v>4.1942513000000001E-2</v>
+      </c>
+      <c r="E82">
+        <v>1.6870983999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7.1424131000000002E-2</v>
+      </c>
+      <c r="C83">
+        <v>5.3815098999999998E-2</v>
+      </c>
+      <c r="D83">
+        <v>4.7951726E-2</v>
+      </c>
+      <c r="E83">
+        <v>1.9681951E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>8.5077898999999998E-2</v>
+      </c>
+      <c r="C84">
+        <v>5.4728025E-2</v>
+      </c>
+      <c r="D84">
+        <v>4.9249320999999999E-2</v>
+      </c>
+      <c r="E84">
+        <v>3.3965077000000003E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>6.9031114000000005E-2</v>
+      </c>
+      <c r="C85">
+        <v>5.2194004000000002E-2</v>
+      </c>
+      <c r="D85">
+        <v>4.9830508000000003E-2</v>
+      </c>
+      <c r="E85">
+        <v>1.8125407E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>8.7697448999999997E-2</v>
+      </c>
+      <c r="C86">
+        <v>5.2089174000000002E-2</v>
+      </c>
+      <c r="D86">
+        <v>4.6022131000000001E-2</v>
+      </c>
+      <c r="E86">
+        <v>2.6101842E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7.5981425000000005E-2</v>
+      </c>
+      <c r="C87">
+        <v>5.0077021999999999E-2</v>
+      </c>
+      <c r="D87">
+        <v>4.4994922E-2</v>
+      </c>
+      <c r="E87">
+        <v>2.0075791999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7.6979588000000002E-2</v>
+      </c>
+      <c r="C88">
+        <v>5.7712113000000002E-2</v>
+      </c>
+      <c r="D88">
+        <v>4.5986429000000002E-2</v>
+      </c>
+      <c r="E88">
+        <v>1.9097027999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>8.3398055999999998E-2</v>
+      </c>
+      <c r="C89">
+        <v>4.5595647000000003E-2</v>
+      </c>
+      <c r="D89">
+        <v>4.9230982E-2</v>
+      </c>
+      <c r="E89">
+        <v>3.6772986000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7.2922389000000004E-2</v>
+      </c>
+      <c r="C90">
+        <v>5.2932628000000002E-2</v>
+      </c>
+      <c r="D90">
+        <v>4.5907057000000001E-2</v>
+      </c>
+      <c r="E90">
+        <v>2.3755934999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7.5243413999999995E-2</v>
+      </c>
+      <c r="C91">
+        <v>4.9587544999999997E-2</v>
+      </c>
+      <c r="D91">
+        <v>4.7025359000000003E-2</v>
+      </c>
+      <c r="E91">
+        <v>2.3042093E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7.7903739E-2</v>
+      </c>
+      <c r="C92">
+        <v>5.1797823999999999E-2</v>
+      </c>
+      <c r="D92">
+        <v>4.2674623000000002E-2</v>
+      </c>
+      <c r="E92">
+        <v>2.7350926000000001E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7.7286249000000001E-2</v>
+      </c>
+      <c r="C93">
+        <v>5.5417005999999998E-2</v>
+      </c>
+      <c r="D93">
+        <v>5.2866183999999997E-2</v>
+      </c>
+      <c r="E93">
+        <v>2.9579833999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7.6641957999999996E-2</v>
+      </c>
+      <c r="C94">
+        <v>5.0572222999999999E-2</v>
+      </c>
+      <c r="D94">
+        <v>4.4946672999999999E-2</v>
+      </c>
+      <c r="E94">
+        <v>1.1618941000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>8.7110300000000002E-2</v>
+      </c>
+      <c r="C95">
+        <v>4.8181028000000001E-2</v>
+      </c>
+      <c r="D95">
+        <v>4.7097171E-2</v>
+      </c>
+      <c r="E95">
+        <v>2.0640110999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7.2170768999999996E-2</v>
+      </c>
+      <c r="C96">
+        <v>4.9427242000000003E-2</v>
+      </c>
+      <c r="D96">
+        <v>4.3720608000000001E-2</v>
+      </c>
+      <c r="E96">
+        <v>2.5451956000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>6.9814888000000005E-2</v>
+      </c>
+      <c r="C97">
+        <v>6.3353653999999995E-2</v>
+      </c>
+      <c r="D97">
+        <v>4.6826268999999997E-2</v>
+      </c>
+      <c r="E97">
+        <v>2.0885422000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7.8261972999999999E-2</v>
+      </c>
+      <c r="C98">
+        <v>5.1604736999999998E-2</v>
+      </c>
+      <c r="D98">
+        <v>4.6697488000000002E-2</v>
+      </c>
+      <c r="E98">
+        <v>3.1869555000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7.6983992000000001E-2</v>
+      </c>
+      <c r="C99">
+        <v>4.6259861999999999E-2</v>
+      </c>
+      <c r="D99">
+        <v>4.4121402999999997E-2</v>
+      </c>
+      <c r="E99">
+        <v>2.4603383E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7.1104949000000001E-2</v>
+      </c>
+      <c r="C100">
+        <v>4.5524271999999998E-2</v>
+      </c>
+      <c r="D100">
+        <v>4.5847128000000001E-2</v>
+      </c>
+      <c r="E100">
+        <v>1.9859559999999998E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>8.0914779000000006E-2</v>
+      </c>
+      <c r="C101">
+        <v>4.8626672000000003E-2</v>
+      </c>
+      <c r="D101">
+        <v>4.3711661999999998E-2</v>
+      </c>
+      <c r="E101">
+        <v>1.6558633999999999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7.4599873999999997E-2</v>
+      </c>
+      <c r="C102">
+        <v>5.0642759000000002E-2</v>
+      </c>
+      <c r="D102">
+        <v>4.7871878999999999E-2</v>
+      </c>
+      <c r="E102">
+        <v>1.5364945E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7.6806607999999998E-2</v>
+      </c>
+      <c r="C103">
+        <v>4.8541641000000003E-2</v>
+      </c>
+      <c r="D103">
+        <v>4.2783116000000003E-2</v>
+      </c>
+      <c r="E103">
+        <v>1.2665113E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7.4017563999999994E-2</v>
+      </c>
+      <c r="C104">
+        <v>4.9894422000000001E-2</v>
+      </c>
+      <c r="D104">
+        <v>4.2332564000000003E-2</v>
+      </c>
+      <c r="E104">
+        <v>1.1768404E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7.7405953E-2</v>
+      </c>
+      <c r="C105">
+        <v>4.4731659E-2</v>
+      </c>
+      <c r="D105">
+        <v>4.4115465999999999E-2</v>
+      </c>
+      <c r="E105">
+        <v>1.3728136E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7.6065338999999996E-2</v>
+      </c>
+      <c r="C106">
+        <v>5.1674655E-2</v>
+      </c>
+      <c r="D106">
+        <v>4.2345351000000003E-2</v>
+      </c>
+      <c r="E106">
+        <v>6.970436E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7.9577204999999998E-2</v>
+      </c>
+      <c r="C107">
+        <v>4.5119336000000003E-2</v>
+      </c>
+      <c r="D107">
+        <v>4.9912177000000002E-2</v>
+      </c>
+      <c r="E107">
+        <v>1.0428655E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7.7524087000000005E-2</v>
+      </c>
+      <c r="C108">
+        <v>4.5608778000000003E-2</v>
+      </c>
+      <c r="D108">
+        <v>4.3672101999999997E-2</v>
+      </c>
+      <c r="E108">
+        <v>9.4227210000000002E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7.3537239000000004E-2</v>
+      </c>
+      <c r="C109">
+        <v>4.6070193000000002E-2</v>
+      </c>
+      <c r="D109">
+        <v>4.7379303999999997E-2</v>
+      </c>
+      <c r="E109">
+        <v>1.0744597E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7.7180382000000006E-2</v>
+      </c>
+      <c r="C110">
+        <v>4.5723672999999999E-2</v>
+      </c>
+      <c r="D110">
+        <v>3.8845983000000001E-2</v>
+      </c>
+      <c r="E110">
+        <v>1.7507959999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7.8608382000000004E-2</v>
+      </c>
+      <c r="C111">
+        <v>5.1433567999999999E-2</v>
+      </c>
+      <c r="D111">
+        <v>4.6171547E-2</v>
+      </c>
+      <c r="E111">
+        <v>1.5393937999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7.6772844000000007E-2</v>
+      </c>
+      <c r="C112">
+        <v>5.1564547000000002E-2</v>
+      </c>
+      <c r="D112">
+        <v>4.4851096E-2</v>
+      </c>
+      <c r="E112">
+        <v>8.5480969999999993E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>6.2618823000000004E-2</v>
+      </c>
+      <c r="C113">
+        <v>4.2214382000000002E-2</v>
+      </c>
+      <c r="D113">
+        <v>4.2218123000000003E-2</v>
+      </c>
+      <c r="E113">
+        <v>1.0707990000000001E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5.9530403000000003E-2</v>
+      </c>
+      <c r="C114">
+        <v>4.701872E-2</v>
+      </c>
+      <c r="D114">
+        <v>4.7156423000000003E-2</v>
+      </c>
+      <c r="E114">
+        <v>9.084389E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7.7561047999999994E-2</v>
+      </c>
+      <c r="C115">
+        <v>4.3228820000000001E-2</v>
+      </c>
+      <c r="D115">
+        <v>4.7227506000000002E-2</v>
+      </c>
+      <c r="E115">
+        <v>1.0209355E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7.0248068999999996E-2</v>
+      </c>
+      <c r="C116">
+        <v>4.6600564999999997E-2</v>
+      </c>
+      <c r="D116">
+        <v>4.6506619999999999E-2</v>
+      </c>
+      <c r="E116">
+        <v>1.8988356000000001E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7.8290710999999999E-2</v>
+      </c>
+      <c r="C117">
+        <v>4.3640798000000001E-2</v>
+      </c>
+      <c r="D117">
+        <v>5.6182497999999997E-2</v>
+      </c>
+      <c r="E117">
+        <v>1.0723821999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7.3218653999999994E-2</v>
+      </c>
+      <c r="C118">
+        <v>4.4194978000000003E-2</v>
+      </c>
+      <c r="D118">
+        <v>4.4243546000000002E-2</v>
+      </c>
+      <c r="E118">
+        <v>1.0553441E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7.6898472999999995E-2</v>
+      </c>
+      <c r="C119">
+        <v>4.6786797999999997E-2</v>
+      </c>
+      <c r="D119">
+        <v>4.6812939999999997E-2</v>
+      </c>
+      <c r="E119">
+        <v>1.0122040000000001E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7.4764011000000005E-2</v>
+      </c>
+      <c r="C120">
+        <v>5.2221924000000003E-2</v>
+      </c>
+      <c r="D120">
+        <v>3.7983207999999997E-2</v>
+      </c>
+      <c r="E120">
+        <v>1.0855029E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>6.7407610000000007E-2</v>
+      </c>
+      <c r="C121">
+        <v>4.4673939000000003E-2</v>
+      </c>
+      <c r="D121">
+        <v>4.4388693999999999E-2</v>
+      </c>
+      <c r="E121">
+        <v>1.1100756E-2</v>
       </c>
     </row>
   </sheetData>
